--- a/output/Kimmirut/k_4/clusters_data.xlsx
+++ b/output/Kimmirut/k_4/clusters_data.xlsx
@@ -20,6 +20,129 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
@@ -32,9 +155,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -44,12 +164,12 @@
     <t>10</t>
   </si>
   <si>
-    <t>524</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -98,126 +218,12 @@
     <t>37</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>946</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>964</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>201</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
     <t>204</t>
   </si>
   <si>
@@ -249,12 +255,6 @@
   </si>
   <si>
     <t>212</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
   </si>
   <si>
     <t>211</t>
@@ -598,18 +598,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CL5"/>
+  <dimension ref="A1:EC5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:90">
+    <row r="1" spans="1:133">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:90">
+    <row r="2" spans="1:133">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -620,14 +620,14 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
       <c r="G2" t="s">
         <v>4</v>
       </c>
@@ -650,828 +650,828 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" t="s">
         <v>5</v>
       </c>
       <c r="W2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Z2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AB2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AD2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AK2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AM2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AN2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AQ2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AR2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AS2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AT2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AU2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AV2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AW2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AX2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BA2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BC2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BD2" t="s">
         <v>8</v>
       </c>
       <c r="BE2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="BF2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BG2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BH2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BI2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BJ2" t="s">
-        <v>14</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>15</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>16</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>17</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>18</v>
-      </c>
-      <c r="BP2" t="s">
         <v>19</v>
       </c>
-      <c r="BQ2" t="s">
-        <v>20</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>21</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>22</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>23</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>24</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>25</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="3" spans="1:90">
+    <row r="3" spans="1:133">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>25</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>26</v>
+      </c>
+      <c r="BI3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="BJ3" t="s">
         <v>28</v>
       </c>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
-      </c>
-      <c r="V3" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI3" t="s">
+      <c r="BK3" t="s">
         <v>29</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AU3" t="s">
+      <c r="BL3" t="s">
         <v>30</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="BM3" t="s">
         <v>31</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="BN3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>6</v>
+      </c>
+      <c r="CQ3" t="s">
         <v>32</v>
       </c>
-      <c r="AX3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>32</v>
-      </c>
-      <c r="BG3" t="s">
+      <c r="CR3" t="s">
         <v>33</v>
       </c>
-      <c r="BH3" t="s">
+      <c r="CS3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>33</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>33</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>33</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>33</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>33</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>33</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>33</v>
+      </c>
+      <c r="DF3" t="s">
         <v>34</v>
       </c>
-      <c r="BI3" t="s">
+      <c r="DG3" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" t="s">
+      <c r="DH3" t="s">
         <v>34</v>
       </c>
-      <c r="BK3" t="s">
+      <c r="DI3" t="s">
         <v>34</v>
       </c>
-      <c r="BL3" t="s">
+      <c r="DJ3" t="s">
         <v>34</v>
       </c>
-      <c r="BM3" t="s">
+      <c r="DK3" t="s">
         <v>34</v>
       </c>
-      <c r="BN3" t="s">
+      <c r="DL3" t="s">
         <v>34</v>
       </c>
-      <c r="BO3" t="s">
+      <c r="DM3" t="s">
         <v>34</v>
       </c>
-      <c r="BP3" t="s">
+      <c r="DN3" t="s">
         <v>34</v>
       </c>
-      <c r="BQ3" t="s">
+      <c r="DO3" t="s">
         <v>34</v>
       </c>
-      <c r="BR3" t="s">
+      <c r="DP3" t="s">
         <v>34</v>
       </c>
-      <c r="BS3" t="s">
+      <c r="DQ3" t="s">
         <v>34</v>
       </c>
-      <c r="BT3" t="s">
+      <c r="DR3" t="s">
         <v>34</v>
       </c>
-      <c r="BU3" t="s">
+      <c r="DS3" t="s">
         <v>34</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="DT3" t="s">
+        <v>34</v>
+      </c>
+      <c r="DU3" t="s">
         <v>35</v>
       </c>
-      <c r="BW3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>35</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>35</v>
-      </c>
-      <c r="CK3" t="s">
+      <c r="DV3" t="s">
         <v>36</v>
       </c>
-      <c r="CL3" t="s">
+      <c r="DW3" t="s">
         <v>37</v>
       </c>
+      <c r="DX3" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>38</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>39</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>40</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="4" spans="1:90">
+    <row r="4" spans="1:133">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="U4" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="W4" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="X4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>52</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>53</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>56</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>57</v>
+      </c>
+      <c r="BO4" t="s">
         <v>44</v>
       </c>
-      <c r="Y4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>55</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>56</v>
-      </c>
       <c r="BP4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="BQ4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="BR4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="BS4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="BT4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="BU4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="BV4" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="BW4" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="BX4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>56</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>56</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>56</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>57</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>58</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>42</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>44</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>42</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>44</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>59</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>60</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>61</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:90">
+    <row r="5" spans="1:133">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" t="s">
-        <v>68</v>
-      </c>
-      <c r="S5" t="s">
-        <v>69</v>
-      </c>
-      <c r="T5" t="s">
-        <v>70</v>
-      </c>
-      <c r="U5" t="s">
-        <v>71</v>
-      </c>
-      <c r="V5" t="s">
-        <v>72</v>
-      </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1517,9 +1517,6 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
@@ -1531,9 +1528,6 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1">
@@ -1541,12 +1535,6 @@
       </c>
       <c r="B5">
         <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/output/Kimmirut/k_4/clusters_data.xlsx
+++ b/output/Kimmirut/k_4/clusters_data.xlsx
@@ -20,63 +20,216 @@
     <t>Cluster ID</t>
   </si>
   <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
     <t>567</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
+    <t>72</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>946</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>524</t>
-  </si>
-  <si>
-    <t>103</t>
+    <t>73</t>
   </si>
   <si>
     <t>964</t>
   </si>
   <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>159</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
+    <t>75</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
   </si>
   <si>
     <t>167</t>
   </si>
   <si>
+    <t>74</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -86,33 +239,12 @@
     <t>28</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
+    <t>29</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>855</t>
-  </si>
-  <si>
-    <t>856</t>
-  </si>
-  <si>
-    <t>858</t>
-  </si>
-  <si>
-    <t>857</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -125,139 +257,7 @@
     <t>41</t>
   </si>
   <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>18</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>211</t>
   </si>
 </sst>
 </file>
@@ -598,18 +598,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EC5"/>
+  <dimension ref="A1:CL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:133">
+    <row r="1" spans="1:90">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:133">
+    <row r="2" spans="1:90">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -620,13 +620,13 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -650,828 +650,828 @@
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2" t="s">
         <v>5</v>
       </c>
       <c r="W2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s">
         <v>6</v>
       </c>
-      <c r="X2" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL2" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="AM2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>8</v>
+      </c>
+      <c r="BE2" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="BF2" t="s">
         <v>10</v>
       </c>
-      <c r="AG2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="s">
+      <c r="BG2" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="BH2" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="BI2" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="BJ2" t="s">
         <v>14</v>
       </c>
-      <c r="AM2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO2" t="s">
+      <c r="BK2" t="s">
         <v>15</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="BL2" t="s">
         <v>16</v>
       </c>
-      <c r="AQ2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BE2" t="s">
+      <c r="BM2" t="s">
         <v>17</v>
       </c>
-      <c r="BF2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="s">
+      <c r="BN2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO2" t="s">
         <v>18</v>
       </c>
-      <c r="BI2" t="s">
-        <v>8</v>
-      </c>
-      <c r="BJ2" t="s">
+      <c r="BP2" t="s">
         <v>19</v>
       </c>
+      <c r="BQ2" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>22</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>23</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>24</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>25</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:133">
+    <row r="3" spans="1:90">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M3" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="U3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="V3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="X3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="Y3" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="Z3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AA3" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="AC3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AD3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="AE3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AF3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>7</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>24</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>25</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>26</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>27</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>28</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>29</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>30</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>31</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>4</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>4</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>4</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>6</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>32</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>33</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>33</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>33</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>33</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>33</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>33</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>33</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>34</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>35</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>36</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>37</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>1</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>38</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>8</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>39</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>40</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:133">
+    <row r="4" spans="1:90">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="Q4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="R4" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="S4" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="T4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="U4" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="V4" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="W4" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="X4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="Z4" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="AA4" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="AB4" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="AC4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AD4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="AE4" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AH4" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="AI4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AK4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AO4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AP4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AQ4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AT4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AU4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AV4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AX4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AY4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AZ4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="BA4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="BB4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="BC4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="BD4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="BE4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="BF4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="BG4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BH4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="BI4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BJ4" t="s">
         <v>53</v>
       </c>
       <c r="BK4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BL4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BM4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="BN4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="BO4" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="BP4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BQ4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="BR4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BS4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="BT4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="BU4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="BV4" t="s">
         <v>64</v>
       </c>
       <c r="BW4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>64</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>64</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>64</v>
+      </c>
+      <c r="CB4" t="s">
         <v>65</v>
       </c>
-      <c r="BX4" t="s">
+      <c r="CC4" t="s">
         <v>66</v>
       </c>
+      <c r="CD4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>31</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>67</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>68</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="5" spans="1:133">
+    <row r="5" spans="1:90">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" t="s">
+        <v>72</v>
+      </c>
+      <c r="V5" t="s">
+        <v>72</v>
+      </c>
+      <c r="W5" t="s">
+        <v>72</v>
+      </c>
+      <c r="X5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU5" t="s">
         <v>73</v>
       </c>
-      <c r="I5" t="s">
+      <c r="AV5" t="s">
         <v>74</v>
       </c>
-      <c r="J5" t="s">
+      <c r="AW5" t="s">
         <v>75</v>
       </c>
-      <c r="K5" t="s">
+      <c r="AX5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG5" t="s">
         <v>76</v>
       </c>
-      <c r="L5" t="s">
+      <c r="BH5" t="s">
         <v>77</v>
       </c>
-      <c r="M5" t="s">
+      <c r="BI5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>77</v>
+      </c>
+      <c r="BV5" t="s">
         <v>78</v>
       </c>
-      <c r="N5" t="s">
+      <c r="BW5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>78</v>
+      </c>
+      <c r="CK5" t="s">
         <v>79</v>
       </c>
-      <c r="O5" t="s">
+      <c r="CL5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1482,59 +1482,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
